--- a/отчет.xlsx
+++ b/отчет.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>cpu acc</t>
   </si>
@@ -37,14 +37,49 @@
   </si>
   <si>
     <t>0m0.209s</t>
+  </si>
+  <si>
+    <t>0m0.936s</t>
+  </si>
+  <si>
+    <t>0m2.575s</t>
+  </si>
+  <si>
+    <t>0m11.484s</t>
+  </si>
+  <si>
+    <t>157m43.896s</t>
+  </si>
+  <si>
+    <t>11m47.346s</t>
+  </si>
+  <si>
+    <t>0m51.839s</t>
+  </si>
+  <si>
+    <t>0m18.304s</t>
+  </si>
+  <si>
+    <t>0m1.994s</t>
+  </si>
+  <si>
+    <t>0m0.615s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -72,8 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -354,44 +390,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>128</v>
       </c>
+      <c r="C1">
+        <v>256</v>
+      </c>
+      <c r="D1">
+        <v>512</v>
+      </c>
+      <c r="E1">
+        <v>1024</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>